--- a/Archivos con versiones antiguas/firebase_data_spyVOC.xlsx
+++ b/Archivos con versiones antiguas/firebase_data_spyVOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E491"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8779,11 +8779,249 @@
       <c r="B491" s="2" t="n">
         <v>45790.47916666666</v>
       </c>
-      <c r="C491" t="inlineStr"/>
+      <c r="C491" t="n">
+        <v>1</v>
+      </c>
       <c r="D491" t="n">
         <v>1</v>
       </c>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>45791.47916666666</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>45792.47916666666</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1</v>
+      </c>
+      <c r="E493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>45796.47916666666</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45797.47916666666</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45800.47916666666</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45804.47916666666</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45805.47916666666</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45806.47916666666</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45807.47916666666</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1</v>
+      </c>
+      <c r="E503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1</v>
+      </c>
+      <c r="E504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45811.47916666666</v>
+      </c>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="n">
+        <v>1</v>
+      </c>
+      <c r="E505" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
